--- a/Documentation/Connected Housing Solutions RMM.xlsx
+++ b/Documentation/Connected Housing Solutions RMM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="0" windowWidth="23300" windowHeight="20460"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="19060" windowHeight="20460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,81 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0">
+    <comment ref="F13" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jheryl Lezama:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1) The cost to correct (in hours) relates to the time it would take to implement another Arduino into the system.
+2) Time is based on a 8 hour work day.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jheryl Lezama:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1) The cost to correct (in hours) relates to the time it would take to wire in and code the extra Arduino device.
+2) Time is based on a 8 hour work day.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jheryl Lezama:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Despite the Mitigation Plan there is still a 20% risk that there may be small issues with the serial reads and writes between the devices.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Number</t>
   </si>
@@ -595,7 +669,16 @@
     <t>Due to the design of the physical model, their exists the hazard of loose wiring leading to shorts in the circuit.</t>
   </si>
   <si>
-    <t>1. Take the wires oiff of the breadboard and actually solder the wires into the model.</t>
+    <t>R-006</t>
+  </si>
+  <si>
+    <t>Due to the nature of the Arduino serial reads and writes, it was discovered that having only two Arduinos led to overlapping writes that ended up bricking the system.</t>
+  </si>
+  <si>
+    <t>1. Take the wires off of the breadboard and physically solder them into the model.</t>
+  </si>
+  <si>
+    <t>1. Add another Arduino device to the system to make sure that serial reads and writes don't overlap and end up bricking the system.</t>
   </si>
 </sst>
 </file>
@@ -1237,13 +1320,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y140"/>
+  <dimension ref="A1:Y142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1514,7 +1597,7 @@
       <c r="E7" s="14">
         <v>0.5</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="13">
         <v>24</v>
       </c>
       <c r="G7" s="4">
@@ -1534,7 +1617,7 @@
         <v>0.1</v>
       </c>
       <c r="L7" s="4">
-        <f>K7*F7</f>
+        <f>F7*K7</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="M7" s="5">
@@ -1597,7 +1680,7 @@
       <c r="E9" s="14">
         <v>0.35</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="13">
         <v>16</v>
       </c>
       <c r="G9" s="4">
@@ -1617,7 +1700,7 @@
         <v>0.1</v>
       </c>
       <c r="L9" s="4">
-        <f>K9*F9</f>
+        <f>F9*K9</f>
         <v>1.6</v>
       </c>
       <c r="M9" s="5">
@@ -1680,7 +1763,7 @@
       <c r="E11" s="14">
         <v>0.2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="13">
         <v>2</v>
       </c>
       <c r="G11" s="13">
@@ -1690,7 +1773,7 @@
         <v>43187</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J11" s="4">
         <v>2</v>
@@ -1699,11 +1782,12 @@
         <v>0.1</v>
       </c>
       <c r="L11" s="4">
-        <v>0.05</v>
+        <f>F11*K11</f>
+        <v>0.2</v>
       </c>
       <c r="M11" s="5">
         <f>K11+L11</f>
-        <v>0.15000000000000002</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -1718,64 +1802,75 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
     </row>
-    <row r="12" spans="1:25" s="11" customFormat="1" ht="25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="9">
-        <f>SUM(F3:F7)</f>
-        <v>40.5</v>
-      </c>
-      <c r="G12" s="9">
-        <f>SUM(G3:G7)</f>
-        <v>20.125</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9">
-        <f>SUM(J3:J7)</f>
-        <v>25</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9">
-        <f>SUM(L3:L7)</f>
-        <v>5.65</v>
-      </c>
-      <c r="M12" s="9">
-        <f>SUM(M3:M7)</f>
-        <v>30.65</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="5"/>
+    <row r="12" spans="1:25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+    </row>
+    <row r="13" spans="1:25" ht="109">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6">
+        <v>43198</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="13">
+        <v>6</v>
+      </c>
+      <c r="G13" s="13">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6">
+        <v>43200</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="4">
+        <v>6</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="4">
+        <f>F13*K13</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="M13" s="5">
+        <f>K13+L13</f>
+        <v>1.4000000000000001</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1789,32 +1884,49 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+    <row r="14" spans="1:25" s="11" customFormat="1" ht="25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9">
+        <f>SUM(F3:F7)</f>
+        <v>40.5</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(G3:G7)</f>
+        <v>20.125</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9">
+        <f>SUM(J3:J7)</f>
+        <v>25</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9">
+        <f>SUM(L3:L7)</f>
+        <v>5.65</v>
+      </c>
+      <c r="M14" s="9">
+        <f>SUM(M3:M7)</f>
+        <v>30.65</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="4"/>
@@ -4895,18 +5007,18 @@
       <c r="Y128" s="5"/>
     </row>
     <row r="129" spans="1:25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
@@ -4922,18 +5034,18 @@
       <c r="Y129" s="5"/>
     </row>
     <row r="130" spans="1:25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
@@ -5218,6 +5330,60 @@
       <c r="X140" s="5"/>
       <c r="Y140" s="5"/>
     </row>
+    <row r="141" spans="1:25">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="L141" s="5"/>
+      <c r="M141" s="5"/>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="5"/>
+      <c r="S141" s="5"/>
+      <c r="T141" s="5"/>
+      <c r="U141" s="5"/>
+      <c r="V141" s="5"/>
+      <c r="W141" s="5"/>
+      <c r="X141" s="5"/>
+      <c r="Y141" s="5"/>
+    </row>
+    <row r="142" spans="1:25">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="5"/>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="5"/>
+      <c r="W142" s="5"/>
+      <c r="X142" s="5"/>
+      <c r="Y142" s="5"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/Documentation/Connected Housing Solutions RMM.xlsx
+++ b/Documentation/Connected Housing Solutions RMM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="19060" windowHeight="20460"/>
+    <workbookView xWindow="1820" yWindow="0" windowWidth="27700" windowHeight="20460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Preston Brooks:
+          <t xml:space="preserve">Jheryl Lezama:
 </t>
         </r>
         <r>
@@ -45,31 +45,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This date is tied directly to a milestone in the Proect Plan (RLN).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Preston Brooks:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="8"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is the Cost of the Mitigation Plan + Residual Impact.</t>
+          <t>This date is tied directly to a milestone in the Project Plan (RLN).</t>
         </r>
       </text>
     </comment>
@@ -141,7 +117,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1. Cost of mitigation plan (in hours) reflects the time it would take to setup a google hangouts chatroom, send out the link to each member and finally accounts for the time it takes to have members sign in and join.</t>
+          <t>1. Cost of mitigation plan (in hours) reflects the time it would take to setup a google hangouts chatroom, send out the link to each member and finally accounts for the time it takes to have members sign in and join.
+2. This timeframe also reflects the time it would take to get each team member signed up for GroupMe chatrrom on their mobile devices.</t>
         </r>
       </text>
     </comment>
@@ -189,9 +166,9 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1. The cost to correct (in hours) is equal to the estimated time it would take to redesign an alternate user interface foruse with  the "landlord property registration" feature.
+          <t>1. The cost to correct (in hours) is equal to the estimated time it would take to redesign an alternate user interface to reflect the changes that accompany the "landlord property registration" feature.
 2. The redesign time takes into account the HTML, CSS, PHP and MySQL database development time that would accompany a complete system feature overhaul.
-3. Time is based on a 8 hour work day.</t>
+3. Time is based on a 8 hour work day, which in this case is 2 work days.</t>
         </r>
       </text>
     </comment>
@@ -265,7 +242,7 @@
           </rPr>
           <t>1. The cost to correct (in hours) is equal to the estimated time it would take to redesign  the network infrastructure in order to avoid overloading the system.
 2. The redesign time takes into account the time it would take to rescript the server configuration and create the actual servers.
-3. Time is based on a 8 hour work day.</t>
+3. Time is based on a 8 hour work day, which in this case is 3 work days.</t>
         </r>
       </text>
     </comment>
@@ -291,7 +268,7 @@
           </rPr>
           <t xml:space="preserve">1. The cost of mitigation plan (in hours) reflects the time it would take to setup the second raspberry pi device to host the web server and MySQL database.
 2. The time to script the configuration of the second raspberry pi device has been accounted for within this time frame.
-3. Time is based on a 8 hour work day. </t>
+3. Time is based on a 8 hour work day, which in this case is 2 days. </t>
         </r>
       </text>
     </comment>
@@ -340,7 +317,7 @@
           </rPr>
           <t xml:space="preserve">
 1) The cost to correct (in hours) relates to the time it would take to implement a new layout for housing the raspberry pi devices.
-2) Time is based on a 8 hour work day.</t>
+2) Time is based on a 8 hour work day, which in this case is 2 work days.</t>
         </r>
       </text>
     </comment>
@@ -364,8 +341,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1) The cost of mitigation plan (in hours) reflects the time it would take to cut out a cooling vent in addition to adding the small cooling fan.
-2) Time is based on a 8 hour work day.</t>
+1) The cost of mitigation plan (in hours) reflects the time it would take to wire in the additional cooling fan and fabricate the cooling vent in roof assembly.
+2) Time is based on a 8 hour work day, which in this case is 2 work days.</t>
         </r>
       </text>
     </comment>
@@ -389,7 +366,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Despite the Mitigation Plan there is still a 10% risk that the new raspberry pi might run into complications with communicating with the rest of the system.</t>
+          <t>Despite the Mitigation Plan there is still a 10% risk that the new cooling system and implementation of the servo may not be enough to cool the system controlling the Physical Model.</t>
         </r>
       </text>
     </comment>
@@ -413,7 +390,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">1) The cost to correct (in hours) relates to the time it would take to solder up the physical wires.
+          <t xml:space="preserve">1) The cost to correct (in hours) relates to the time it would take to solder the  wires in place.
 2) Time is based on a 8 hour work day.
 </t>
         </r>
@@ -439,8 +416,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>1) The cost to correct (in hours) relates to the time it would take to transfer the wiring from the breadboard to hard soldering.
-2) Time is based on a 8 hour work day.</t>
+          <t>1) The cost to correct (in hours) relates to the time it would take to draft out a wiring schematic and move the wires from the breadboard and solder to the model.
+2) Time is based on a 8 hour work day, which in this case is 2 work days.</t>
         </r>
       </text>
     </comment>
@@ -488,8 +465,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1) The cost to correct (in hours) relates to the time it would take to implement another Arduino into the system.
-2) Time is based on a 8 hour work day.</t>
+1) The cost to correct (in hours) relates to the time it would take to recode the Arduino logic controlling each of the various sensors.
+2) Time is based on a 8 hour work day, which in this case 3 work days.</t>
         </r>
       </text>
     </comment>
@@ -513,8 +490,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1) The cost to correct (in hours) relates to the time it would take to wire in and code the extra Arduino device.
-2) Time is based on a 8 hour work day.</t>
+1) The cost to correct (in hours) relates to the time it would take to wire and code the additional Arduino device.
+2) Time is based on a 8 hour work day, which in this case is 3 work days.</t>
         </r>
       </text>
     </comment>
@@ -538,7 +515,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Despite the Mitigation Plan there is still a 20% risk that there may be small issues with the serial reads and writes between the devices.</t>
+Despite the Mitigation Plan there is still a 20% risk that there may be small issues with the serial reads and writes between the devices that degrade system performance, however it will not brick the system..</t>
         </r>
       </text>
     </comment>
@@ -627,19 +604,7 @@
     <t>Cost of Mitigation Plan (Hours)</t>
   </si>
   <si>
-    <t>1. Create a google hangouts chatroom that allows online meetups and group collaboration</t>
-  </si>
-  <si>
     <t>Residual Impact (Hours)</t>
-  </si>
-  <si>
-    <t>1. Create a less complex fallback design that would be easier to implement given our current web development skillset.</t>
-  </si>
-  <si>
-    <t>Due to personal schedules and weather conditions, we may not be able to meet in person as often as we would have liked.</t>
-  </si>
-  <si>
-    <t>Due to our current skill set with regards to web development, we may be unable to genrate html elements on the main page to accompany the landlord property registration feature.</t>
   </si>
   <si>
     <t>Due to the nature of the project, a private network is required for the sensors/assets to communicate with the MQTT Server and Website. As such, there is a chance that hosting all the servers on one raspberry pi might overload the system.</t>
@@ -657,28 +622,45 @@
     <t>R-004</t>
   </si>
   <si>
-    <t>Due to the design of the physical model, the raspberry pi devices that will be housed in the attic may suffer form excessive heat build up and cause degraded performance.</t>
-  </si>
-  <si>
-    <t>1. Install a cooling fan in the attic to reduce the heat build-up in addition to a heat extractor vent that can help cool the system.</t>
-  </si>
-  <si>
     <t>R-005</t>
-  </si>
-  <si>
-    <t>Due to the design of the physical model, their exists the hazard of loose wiring leading to shorts in the circuit.</t>
   </si>
   <si>
     <t>R-006</t>
   </si>
   <si>
-    <t>Due to the nature of the Arduino serial reads and writes, it was discovered that having only two Arduinos led to overlapping writes that ended up bricking the system.</t>
+    <t>Due to individual team member's personal schedules and weather conditions, we may not be able to meet in person as often as we would have liked.</t>
   </si>
   <si>
-    <t>1. Take the wires off of the breadboard and physically solder them into the model.</t>
+    <t>1. Create a google hangouts chatroom that allows online meetups and group collaboration.
+2. Sign up for GroupMe text chatroom to establish group communication outside of scheduled hangouts meeting times.</t>
   </si>
   <si>
-    <t>1. Add another Arduino device to the system to make sure that serial reads and writes don't overlap and end up bricking the system.</t>
+    <t>Due to the team's current skillset regarding website development, we may be unable to dynamically generate html elements on the property management dashboard to reflect the registered properties.</t>
+  </si>
+  <si>
+    <t>1. Create a less complex fallback design that would be easier to implement given our current web development skillset.
+2. Research and develop test code for this alternate method to make sure that it can be implemented A.S.A.P. without any further issues.</t>
+  </si>
+  <si>
+    <t>1. Install a cooling fan in the attic to reduce the heat build-up.
+2. Install a small heat extractor vent in the roof design that will help cool the system.
+3. Add a servo to lift the roof of the attic for emergency cooling (also doubles as a way to quickly access the physical model's system components).</t>
+  </si>
+  <si>
+    <t>Due to the design of the Physical Model, the Raspberry Pi devices that will be housed within the attic may suffer from excessive heat build up and cause degraded system performance.</t>
+  </si>
+  <si>
+    <t>Due to the electrical nature of the Physical Model, any loose or non-grounded wiring could lead to a short in the model's wiring circuit.</t>
+  </si>
+  <si>
+    <t>1. Design a wire schematic that accounts for each sensor including the model's led lighting and then solder the wiring in place on the model to insure that there are no loose wires.</t>
+  </si>
+  <si>
+    <t>Due to the nature of the number of sensors configured on each Arduino device, it was discovered that when commencing with serial reads and writes the system would confuse and overlap these writes with the wrong sensor and eventually brick itself in a loop.</t>
+  </si>
+  <si>
+    <t>1. Add another Arduino microcontroller to the system to alleviate the overlapping of the serial reads and writes and avoid bricking the system.
+2. Rearrange the devices on the wiring schematic to accomadate the additional Arduino on the circuit and to make sure that there is sapce on the model to house the device itself.</t>
   </si>
 </sst>
 </file>
@@ -825,7 +807,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -840,9 +822,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -854,16 +833,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1326,7 +1322,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1379,7 +1375,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>8</v>
@@ -1389,19 +1385,19 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -1415,46 +1411,46 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
     </row>
-    <row r="3" spans="1:25" ht="85">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:25" ht="120">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="13">
         <v>43103</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="E3" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="14">
         <v>0.5</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="11">
         <f>E3*F3</f>
-        <v>0.125</v>
-      </c>
-      <c r="H3" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="H3" s="13">
         <v>43105</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="13">
+      <c r="I3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="15">
         <v>1</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="11">
         <v>0.1</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="11">
         <f>F3*K3</f>
         <v>0.05</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="12">
         <f>J3+L3</f>
         <v>1.05</v>
       </c>
@@ -1472,19 +1468,19 @@
       <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -1498,46 +1494,46 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
     </row>
-    <row r="5" spans="1:25" ht="109">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:25" ht="132">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="13">
         <v>43126</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="E5" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="15">
         <v>16</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="15">
         <f>E5*F5</f>
+        <v>9.6</v>
+      </c>
+      <c r="H5" s="13">
+        <v>43149</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="15">
         <v>8</v>
       </c>
-      <c r="H5" s="6">
-        <v>43149</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="13">
-        <v>8</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="K5" s="11">
         <v>0.2</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="11">
         <f>F5*K5</f>
         <v>3.2</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="17">
         <f>J5+L5</f>
         <v>11.2</v>
       </c>
@@ -1555,19 +1551,19 @@
       <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -1581,46 +1577,46 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
     </row>
-    <row r="7" spans="1:25" ht="145">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:25" ht="144">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="13">
         <v>43126</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="15">
         <v>24</v>
       </c>
-      <c r="E7" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="13">
-        <v>24</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="G7" s="11">
         <f>E7*F7</f>
         <v>12</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="13">
         <v>43173</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="I7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="15">
         <v>16</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="11">
         <v>0.1</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="11">
         <f>F7*K7</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="12">
         <f>J7+L7</f>
         <v>18.399999999999999</v>
       </c>
@@ -1638,19 +1634,19 @@
       <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -1664,46 +1660,46 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
     </row>
-    <row r="9" spans="1:25" ht="121">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="6">
+    <row r="9" spans="1:25" ht="180">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="13">
         <v>43169</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="C9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="16">
         <v>0.35</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="15">
         <v>16</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="11">
         <f>E9*F9</f>
         <v>5.6</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="13">
         <v>43173</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="I9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="15">
         <v>16</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="15">
         <v>0.1</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="11">
         <f>F9*K9</f>
         <v>1.6</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="12">
         <f>J9+L9</f>
         <v>17.600000000000001</v>
       </c>
@@ -1721,19 +1717,19 @@
       <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -1747,47 +1743,48 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
     </row>
-    <row r="11" spans="1:25" ht="61">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6">
+    <row r="11" spans="1:25" ht="180" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="13">
         <v>43177</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="C11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="16">
         <v>0.2</v>
       </c>
-      <c r="F11" s="13">
-        <v>2</v>
-      </c>
-      <c r="G11" s="13">
-        <v>5</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="F11" s="15">
+        <v>8</v>
+      </c>
+      <c r="G11" s="15">
+        <f>E11*F11</f>
+        <v>1.6</v>
+      </c>
+      <c r="H11" s="13">
         <v>43187</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="4">
-        <v>2</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="I11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="11">
+        <v>16</v>
+      </c>
+      <c r="K11" s="11">
         <v>0.1</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="11">
         <f>F11*K11</f>
-        <v>0.2</v>
-      </c>
-      <c r="M11" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="12">
         <f>K11+L11</f>
-        <v>0.30000000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -1803,19 +1800,19 @@
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="5"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -1829,47 +1826,48 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:25" ht="109">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="6">
+    <row r="13" spans="1:25" ht="180" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="13">
         <v>43198</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="15">
         <v>24</v>
       </c>
-      <c r="E13" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="F13" s="13">
-        <v>6</v>
-      </c>
-      <c r="G13" s="13">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13" s="15">
+        <f>E13*F13</f>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="H13" s="13">
         <v>43200</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="4">
-        <v>6</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="J13" s="11">
+        <v>24</v>
+      </c>
+      <c r="K13" s="11">
         <v>0.2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="11">
         <f>F13*K13</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="M13" s="5">
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="M13" s="12">
         <f>K13+L13</f>
-        <v>1.4000000000000001</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1884,49 +1882,49 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="1:25" s="11" customFormat="1" ht="25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="9">
-        <f>SUM(F3:F7)</f>
-        <v>40.5</v>
-      </c>
-      <c r="G14" s="9">
-        <f>SUM(G3:G7)</f>
-        <v>20.125</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9">
-        <f>SUM(J3:J7)</f>
-        <v>25</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9">
-        <f>SUM(L3:L7)</f>
-        <v>5.65</v>
-      </c>
-      <c r="M14" s="9">
-        <f>SUM(M3:M7)</f>
-        <v>30.65</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
+    <row r="14" spans="1:25" s="10" customFormat="1" ht="25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="18">
+        <f>SUM(F3 + F5 + F7 + F9 +F11 + F13)</f>
+        <v>88.5</v>
+      </c>
+      <c r="G14" s="19">
+        <f>SUM(G3 + G5 + G7 + G9 + G11 + G13)</f>
+        <v>48.150000000000006</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="19">
+        <f>SUM(J3 + J5 + J7 + J9 + J11 + J13)</f>
+        <v>81</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8">
+        <f>SUM(L3 + L5 + L7 + L9 + L11 + L13)</f>
+        <v>12.850000000000001</v>
+      </c>
+      <c r="M14" s="19">
+        <f>SUM(M3 + M5 + M7 + M9 + M11 + M13)</f>
+        <v>54.15</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="4"/>

--- a/Documentation/Connected Housing Solutions RMM.xlsx
+++ b/Documentation/Connected Housing Solutions RMM.xlsx
@@ -1322,7 +1322,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0"/>
